--- a/Time sheet/MCI-Timetsheet(Jason-week-3).xlsx
+++ b/Time sheet/MCI-Timetsheet(Jason-week-3).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10314"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10323"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jason/Desktop/MCI_2021/MCI_Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jason/Desktop/MCI_2021/MCI_Project/Team-024/Time sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61053550-BA12-BB47-A0FE-BB3039709724}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BAFE6FB-1FAD-184B-B4DE-B956F49BE744}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19080" yWindow="500" windowWidth="19320" windowHeight="14500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14480" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
@@ -140,9 +140,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]h:mm\ AM/PM;@"/>
-    <numFmt numFmtId="167" formatCode="[$-409]h:mm\ am/pm;@"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -374,23 +373,23 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -738,7 +737,7 @@
   <dimension ref="A2:AW12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -755,16 +754,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:49" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
     </row>
     <row r="3" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -830,7 +829,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="E6" s="11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>19</v>
@@ -895,7 +894,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="E7" s="11">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>21</v>
@@ -953,12 +952,12 @@
         <v>14</v>
       </c>
       <c r="B8" s="10"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="19"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="18"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
@@ -1013,7 +1012,7 @@
         <v>0.625</v>
       </c>
       <c r="E9" s="11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>26</v>
@@ -1190,7 +1189,7 @@
       </c>
       <c r="E12" s="8">
         <f>SUM(E6:E11)</f>
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
